--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cn" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="DR_c8d7df95">#REF!</definedName>
     <definedName name="DR_d4dfc7fc">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="114210" calcOnSave="0"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -370,21 +370,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>姓  名</t>
   </si>
   <si>
     <t>{{name}}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{{address}}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -408,7 +408,7 @@
       </rPr>
       <t>表</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -474,7 +474,7 @@
       </rPr>
       <t>{%yn fm%}其他</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -488,31 +488,31 @@
       </rPr>
       <t>本表            。</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>上 {{loop.index}} {%yn row[0]%}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中 {{loop.index}} {%yn loop.index % 2 %}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>下 {{loop.index}} {%yn row[0]%}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{{name}}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Address</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -578,39 +578,39 @@
       </rPr>
       <t>{%yn fm%}other</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>middle  {{loop.index}} {%yn loop.index % 2 %}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>first       {{loop.index}} {%yn row[0]%}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>last       {{loop.index}} {%yn row[0]%}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{{address}}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{{attr}}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  {{getattr(rows, attr)}}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Attribute</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -643,15 +643,15 @@
       </rPr>
       <t>m</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Row</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Rows</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -674,33 +674,47 @@
       </rPr>
       <t>this form           .</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   {%xv date%}   </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   {%xv fm%}   </t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="180" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="181" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="49">
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1003,63 +1017,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1487,10 +1457,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1511,178 +1511,145 @@
     <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="41" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1691,19 +1658,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1712,62 +1679,77 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1823,7 +1805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2109,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2125,147 +2107,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="52" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2283,7 +2271,7 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C8:H8"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.78740157480314965" top="0.27559055118110237" bottom="0.35433070866141736" header="0.51181102362204722" footer="0.6692913385826772"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2296,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2312,147 +2300,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="53" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="B10" s="37"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="49"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="B11" s="37"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2470,7 +2464,7 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.78740157480314965" top="0.27559055118110237" bottom="0.35433070866141736" header="0.51181102362204722" footer="0.6692913385826772"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2494,35 +2488,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.27559055118110237" bottom="0.35433070866141736" header="0.51181102362204722" footer="0.6692913385826772"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="cn" sheetId="2" r:id="rId1"/>
     <sheet name="en" sheetId="3" r:id="rId2"/>
     <sheet name="attr" sheetId="4" r:id="rId3"/>
+    <sheet name="ex" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="CR_1293b718">#REF!</definedName>
@@ -112,6 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>beforerow{% elif not loop.last%}</t>
@@ -121,6 +123,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -160,6 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>beforerow{% endif%}{% endfor %}</t>
@@ -169,6 +173,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -243,6 +248,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>beforerow{% elif not loop.last%}</t>
@@ -252,6 +258,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -291,6 +298,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>beforerow{% endif%}{% endfor %}</t>
@@ -300,6 +308,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -325,6 +334,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>beforerow{% for attr in dir(rows) %}</t>
@@ -334,6 +344,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -349,6 +360,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>aftercell{% endfor %}</t>
@@ -358,6 +370,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -369,8 +382,42 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>beforerow{% for row in rows %}beforecell{% for item in row %}aftercell{% endfor %}{% endfor %}</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>姓  名</t>
   </si>
@@ -395,6 +442,7 @@
         <sz val="18"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>记</t>
@@ -404,6 +452,7 @@
         <sz val="18"/>
         <color indexed="20"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表</t>
@@ -419,6 +468,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{{name}}</t>
@@ -427,6 +477,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  ......</t>
@@ -436,6 +487,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -444,6 +496,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -453,6 +506,7 @@
         <sz val="11"/>
         <color indexed="48"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{{address}}</t>
@@ -461,6 +515,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  ......  </t>
@@ -470,6 +525,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{%yn fm%}其他</t>
@@ -484,6 +540,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>本表            。</t>
@@ -662,6 +719,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -698,6 +756,10 @@
   </si>
   <si>
     <t xml:space="preserve">   {%xv fm%}   </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%xv item%}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -708,9 +770,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="180" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="181" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -721,54 +783,64 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -788,18 +860,21 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -807,18 +882,21 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -893,6 +971,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -900,6 +979,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -908,6 +988,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -916,6 +997,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -924,6 +1006,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -932,6 +1015,7 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -939,6 +1023,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -946,6 +1031,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -954,6 +1040,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -962,6 +1049,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -970,6 +1058,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -978,6 +1067,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -985,6 +1075,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -992,6 +1083,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -999,6 +1091,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1007,6 +1100,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1014,6 +1108,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1588,7 +1683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1619,6 +1714,51 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1646,38 +1786,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1694,61 +1846,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2091,6 +2189,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" customHeight="1">
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="51.75" customHeight="1">
+      <c r="B7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" customHeight="1">
+      <c r="B9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" customHeight="1">
+      <c r="B10" s="23"/>
+      <c r="C10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" customHeight="1">
+      <c r="B11" s="23"/>
+      <c r="C11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="51.75" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B12:H13"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.78740157480314965" top="0.27559055118110237" bottom="0.35433070866141736" header="0.51181102362204722" footer="0.6692913385826772"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
@@ -2107,153 +2398,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="52" t="s">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="50" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="B7" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
+      <c r="C8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="C9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2270,199 +2561,6 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C8:H8"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.78740157480314965" top="0.27559055118110237" bottom="0.35433070866141736" header="0.51181102362204722" footer="0.6692913385826772"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1">
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B7" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1">
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="B9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="48"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B12:H13"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2488,8 +2586,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -2508,8 +2606,8 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2523,4 +2621,29 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -1300,7 +1300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1547,6 +1547,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1683,7 +1720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,6 +1769,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1750,47 +1826,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1819,34 +1880,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2190,7 +2236,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2205,33 +2251,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="B4" s="1" t="s">
@@ -2241,8 +2287,8 @@
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="1"/>
       <c r="H4" s="13" t="s">
         <v>31</v>
@@ -2252,8 +2298,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="12" t="s">
         <v>29</v>
       </c>
@@ -2265,96 +2311,102 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:H13"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C11:H11"/>
@@ -2362,12 +2414,6 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2398,33 +2444,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -2434,8 +2480,8 @@
         <v>11</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="5"/>
       <c r="H4" s="14" t="s">
         <v>31</v>
@@ -2445,8 +2491,8 @@
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
@@ -2458,102 +2504,96 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="B11" s="45"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:H13"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C11:H11"/>
@@ -2561,6 +2601,12 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2586,8 +2632,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -2606,8 +2652,8 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="cn" sheetId="2" r:id="rId1"/>
     <sheet name="en" sheetId="3" r:id="rId2"/>
-    <sheet name="attr" sheetId="4" r:id="rId3"/>
-    <sheet name="ex" sheetId="5" r:id="rId4"/>
+    <sheet name="list0" sheetId="6" r:id="rId3"/>
+    <sheet name="list1" sheetId="7" r:id="rId4"/>
+    <sheet name="attr" sheetId="4" r:id="rId5"/>
+    <sheet name="image" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">list0!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">list1!$A$1:$G$1</definedName>
     <definedName name="CR_1293b718">#REF!</definedName>
     <definedName name="CR_1e3dfc89">#REF!</definedName>
     <definedName name="CR_24bc0218">#REF!</definedName>
@@ -46,378 +50,12 @@
     <definedName name="DR_c8d7df95">#REF!</definedName>
     <definedName name="DR_d4dfc7fc">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="125725" calcOnSave="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-    <author>hello2u</author>
-  </authors>
-  <commentList>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>beforerow{% for row in rows %}{% if loop.first and loop.last %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>beforerow{% elif loop.first %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>beforerow{% elif not loop.last%}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>beforerow{% elif loop.last %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>beforerow{% endif%}{% endfor %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-    <author>hello2u</author>
-  </authors>
-  <commentList>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>beforerow{% for row in rows %}{% if loop.first and loop.last %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>beforerow{% elif loop.first %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>beforerow{% elif not loop.last%}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>beforerow{% elif loop.last %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>beforerow{% endif%}{% endfor %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hello2u</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>beforerow{% for attr in dir(rows) %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>aftercell{% endfor %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>beforerow{% for row in rows %}beforecell{% for item in row %}aftercell{% endfor %}{% endfor %}</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>姓  名</t>
   </si>
@@ -658,15 +296,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  {{getattr(rows, attr)}}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Attribute</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -759,22 +389,136 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{%xv item%}</t>
+    <t>{% for row in rows %}{% if loop.first and loop.last %}</t>
+  </si>
+  <si>
+    <t>{% elif loop.first %}</t>
+  </si>
+  <si>
+    <t>{% elif not loop.last%}</t>
+  </si>
+  <si>
+    <t>{% elif loop.last %}</t>
+  </si>
+  <si>
+    <t>{% endif%}{% endfor %}</t>
+  </si>
+  <si>
+    <t>Value{% for attr in dir(rows) %}</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {{getattr(rows, attr)}}{% endfor %}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{% for p in ps %}</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>{{p.name}}</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>{{p.address}}</t>
+  </si>
+  <si>
+    <t>{% endfor %}</t>
+  </si>
+  <si>
+    <t>{% img p.img%}</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>{% img ps[0].img%}{% img img,1%}{% img ps[2].img,2%}</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名</t>
+  </si>
+  <si>
+    <t>品种</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>{% for item in items %}{{item.name}}</t>
+  </si>
+  <si>
+    <t>{{item.category}}</t>
+  </si>
+  <si>
+    <t>{{item.price}}</t>
+  </si>
+  <si>
+    <t>{{item.count}}</t>
+  </si>
+  <si>
+    <t>{{item.price*item.count}}</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{item.date}}</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{item.name}}</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{item.date}}{% endfor %}</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期{% for item in items %}</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{item.price*item.count}}</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额 (space)</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {{item.price*item.count}}</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   {%xv item.price*item.count%}   </t>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="65">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -844,19 +588,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -866,21 +597,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1117,6 +833,150 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1585,80 +1445,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1668,59 +1528,192 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1736,37 +1729,130 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1796,156 +1882,346 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="90">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="46"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="47"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="48"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="49"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="6"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="50"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="51"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="8"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="52"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="53"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="54"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="11"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="55"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="12"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="13"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="57"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="14"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="58"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="59"/>
     <cellStyle name="60% - 强调文字颜色 4 2" xfId="16"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="61"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="62"/>
     <cellStyle name="标题 1 2" xfId="19"/>
+    <cellStyle name="标题 1 2 2" xfId="63"/>
     <cellStyle name="标题 2 2" xfId="20"/>
+    <cellStyle name="标题 2 2 2" xfId="64"/>
     <cellStyle name="标题 3 2" xfId="21"/>
+    <cellStyle name="标题 3 2 2" xfId="65"/>
     <cellStyle name="标题 4 2" xfId="22"/>
+    <cellStyle name="标题 4 2 2" xfId="66"/>
     <cellStyle name="标题 5" xfId="23"/>
+    <cellStyle name="标题 5 2" xfId="67"/>
     <cellStyle name="差 2" xfId="24"/>
+    <cellStyle name="差 2 2" xfId="68"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="25"/>
+    <cellStyle name="常规 2 2" xfId="69"/>
     <cellStyle name="常规 3" xfId="26"/>
+    <cellStyle name="常规 3 2" xfId="70"/>
     <cellStyle name="常规 4" xfId="27"/>
+    <cellStyle name="常规 4 2" xfId="71"/>
+    <cellStyle name="常规 4 3" xfId="89"/>
     <cellStyle name="好 2" xfId="28"/>
+    <cellStyle name="好 2 2" xfId="72"/>
     <cellStyle name="汇总 2" xfId="29"/>
+    <cellStyle name="汇总 2 2" xfId="73"/>
     <cellStyle name="计算 2" xfId="30"/>
+    <cellStyle name="计算 2 2" xfId="74"/>
     <cellStyle name="检查单元格 2" xfId="31"/>
+    <cellStyle name="检查单元格 2 2" xfId="75"/>
     <cellStyle name="解释性文本 2" xfId="32"/>
+    <cellStyle name="解释性文本 2 2" xfId="76"/>
     <cellStyle name="警告文本 2" xfId="33"/>
+    <cellStyle name="警告文本 2 2" xfId="77"/>
     <cellStyle name="链接单元格 2" xfId="34"/>
+    <cellStyle name="链接单元格 2 2" xfId="78"/>
     <cellStyle name="强调文字颜色 1 2" xfId="35"/>
+    <cellStyle name="强调文字颜色 1 2 2" xfId="79"/>
     <cellStyle name="强调文字颜色 2 2" xfId="36"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="80"/>
     <cellStyle name="强调文字颜色 3 2" xfId="37"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="81"/>
     <cellStyle name="强调文字颜色 4 2" xfId="38"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="82"/>
     <cellStyle name="强调文字颜色 5 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 5 2 2" xfId="83"/>
     <cellStyle name="强调文字颜色 6 2" xfId="40"/>
+    <cellStyle name="强调文字颜色 6 2 2" xfId="84"/>
     <cellStyle name="适中 2" xfId="41"/>
+    <cellStyle name="适中 2 2" xfId="85"/>
     <cellStyle name="输出 2" xfId="42"/>
+    <cellStyle name="输出 2 2" xfId="86"/>
     <cellStyle name="输入 2" xfId="43"/>
+    <cellStyle name="输入 2 2" xfId="87"/>
     <cellStyle name="注释 2" xfId="44"/>
+    <cellStyle name="注释 2 2" xfId="88"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="xml.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="790575"/>
+          <a:ext cx="1333500" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1485899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="xml.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="3390899"/>
+          <a:ext cx="1466850" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1600199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3448050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="xml.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686174" y="4848224"/>
+          <a:ext cx="1295401" cy="1847851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3705224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4905375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="xml.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609974" y="6953249"/>
+          <a:ext cx="1381126" cy="1200151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2236,7 +2512,214 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" customHeight="1">
+      <c r="B2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" ht="51.75" customHeight="1">
+      <c r="B7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8" ht="51.75" customHeight="1">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B12:H13"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.78740157480314965" top="0.27559055118110237" bottom="0.35433070866141736" header="0.51181102362204722" footer="0.6692913385826772"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2251,153 +2734,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="13" t="s">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+    </row>
+    <row r="7" spans="1:8" ht="51.75" customHeight="1">
+      <c r="B7" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" customHeight="1">
+      <c r="A9" s="19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B7" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1">
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="B9" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="B10" s="56"/>
-      <c r="C10" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="B11" s="57"/>
-      <c r="C11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2416,213 +2914,163 @@
     <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.78740157480314965" top="0.27559055118110237" bottom="0.35433070866141736" header="0.51181102362204722" footer="0.6692913385826772"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B2" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1">
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B7" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1">
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="B9" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="54"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1">
-      <c r="B11" s="42"/>
-      <c r="C11" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-    </row>
-    <row r="13" spans="1:8" ht="51.75" customHeight="1">
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B12:H13"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.78740157480314965" top="0.27559055118110237" bottom="0.35433070866141736" header="0.51181102362204722" footer="0.6692913385826772"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="31" customFormat="1">
+      <c r="A1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="31" customFormat="1">
+      <c r="A2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="31" customFormat="1">
+      <c r="A3" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <phoneticPr fontId="46" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>111</formula1>
+      <formula2>11111</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="31" customFormat="1">
+      <c r="A1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="31" customFormat="1">
+      <c r="A2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <phoneticPr fontId="46" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2632,15 +3080,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
@@ -2648,12 +3096,12 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2665,31 +3113,109 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.27559055118110237" bottom="0.35433070866141736" header="0.51181102362204722" footer="0.6692913385826772"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>32</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="22.5">
+      <c r="A2" s="20"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+    </row>
+    <row r="4" spans="1:4" ht="27" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="82"/>
+    </row>
+    <row r="6" spans="1:4" ht="27" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="82"/>
+    </row>
+    <row r="7" spans="1:4" ht="27" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="82"/>
+    </row>
+    <row r="8" spans="1:4" ht="27" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="83"/>
+    </row>
+    <row r="9" spans="1:4" ht="27" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="13" spans="1:4" ht="409.5" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D4:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>